--- a/data/hotels_by_city/Houston/Houston_shard_129.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_129.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1583951-Reviews-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Suites.h3123142.Hotel-Information?chkin=7%2F9%2F2018&amp;chkout=7%2F10%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530384256796&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=76721439-8afd-4fe8-8008-4e94adfc898d&amp;mctc=9&amp;exp_dp=73.1&amp;exp_ts=1530384257329&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,482 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r468415867-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1583951</t>
+  </si>
+  <si>
+    <t>468415867</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attitude...Attitude...Attitude </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would not recommend this hotel UNLESS you have an attitude problem.  Fake smiles, fake courtesy, and horrible guests...The guests and the staff.  Nice on the outside horrible atmosphere on the inside.  </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r452913054-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452913054</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Exceptionally friendly and helpful staffs</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for one week and the staffs working there especially those at the front desk had made us felt at home. They were courteous, friendly and genuinely caring! The hotel room was spacious with a living area and come fully equipped with microwave oven! Room was clean and comfortable. The complimentary breakfast was good as well! The hotel located right on Highway 6, the main artery for the "Energy Corridor" so it's conveniently closed to Exxon-Mobil and other major corporations. The hotel also was right next to a shopping center and supermarket so it's convenient for shopping.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r449998722-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>449998722</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>OverNight Ckeck-In</t>
+  </si>
+  <si>
+    <t>Visiting Houston neighborhood and need an place to spend the night, Comfort Inn is.Clean Cozy and Comfortable Rooms. Hospitable And Welcoming Employee. Free Stuff Included (WIFI, Breakfast, and Gym).Pricing is not attractive but comparable  if you reserve same day.Will Stay Here Again.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r361791393-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361791393</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>where is my money</t>
+  </si>
+  <si>
+    <t>i have been a guest at this hotel for the past 3 years normally I love this place friendly staff clean however my recent stay has been by far the worst one ever I booked 2 rooms for a 3 night stay as always and informed Ivory that it would be paid for separate she assured me that she would make a note in the computer however when I arrived not only had she put me in a handicap room with no tub but she failed to put the note in for the separate payment however Angel fixed it and made a note of it I checked in room 116 my guest were for 114 after I checked my account I had been charged for the total of 2 rooms 285 so I informed the front counter and requested to receive the key for the other room since I had already paid for it the next morning my guest were not allowed to enter their room because they were told that the room wasn't paid for so they had to pay the 285 again I was livid by this time. I called the manager who hasn't been available to speak with me I spoke with tiffany a front desk manager she informed me that a credit was suppose to go to my account for the 285 she even emailed me the proof however 2weeks later still no refund I call...i have been a guest at this hotel for the past 3 years normally I love this place friendly staff clean however my recent stay has been by far the worst one ever I booked 2 rooms for a 3 night stay as always and informed Ivory that it would be paid for separate she assured me that she would make a note in the computer however when I arrived not only had she put me in a handicap room with no tub but she failed to put the note in for the separate payment however Angel fixed it and made a note of it I checked in room 116 my guest were for 114 after I checked my account I had been charged for the total of 2 rooms 285 so I informed the front counter and requested to receive the key for the other room since I had already paid for it the next morning my guest were not allowed to enter their room because they were told that the room wasn't paid for so they had to pay the 285 again I was livid by this time. I called the manager who hasn't been available to speak with me I spoke with tiffany a front desk manager she informed me that a credit was suppose to go to my account for the 285 she even emailed me the proof however 2weeks later still no refund I call the hotel back Ivory the front desk lady who initially medded up my reservation states that I was charged 285 for a no show because I had 3 rooms reserved I informed her about the email conformation that She sent me that clearly has 2 rooms and I also informed her how is it possible to be a no show when I checked in. here it is almost a month later still haven heard from the manager MIKE nor have I received my 285 dollars back . I am so disappointed in this hotel the front desk clerks with the exception of Angel are not as good as they were when we first started visiting Houston maybe and hopefully with this review someone will read it and look into this matter if all else failsMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>i have been a guest at this hotel for the past 3 years normally I love this place friendly staff clean however my recent stay has been by far the worst one ever I booked 2 rooms for a 3 night stay as always and informed Ivory that it would be paid for separate she assured me that she would make a note in the computer however when I arrived not only had she put me in a handicap room with no tub but she failed to put the note in for the separate payment however Angel fixed it and made a note of it I checked in room 116 my guest were for 114 after I checked my account I had been charged for the total of 2 rooms 285 so I informed the front counter and requested to receive the key for the other room since I had already paid for it the next morning my guest were not allowed to enter their room because they were told that the room wasn't paid for so they had to pay the 285 again I was livid by this time. I called the manager who hasn't been available to speak with me I spoke with tiffany a front desk manager she informed me that a credit was suppose to go to my account for the 285 she even emailed me the proof however 2weeks later still no refund I call...i have been a guest at this hotel for the past 3 years normally I love this place friendly staff clean however my recent stay has been by far the worst one ever I booked 2 rooms for a 3 night stay as always and informed Ivory that it would be paid for separate she assured me that she would make a note in the computer however when I arrived not only had she put me in a handicap room with no tub but she failed to put the note in for the separate payment however Angel fixed it and made a note of it I checked in room 116 my guest were for 114 after I checked my account I had been charged for the total of 2 rooms 285 so I informed the front counter and requested to receive the key for the other room since I had already paid for it the next morning my guest were not allowed to enter their room because they were told that the room wasn't paid for so they had to pay the 285 again I was livid by this time. I called the manager who hasn't been available to speak with me I spoke with tiffany a front desk manager she informed me that a credit was suppose to go to my account for the 285 she even emailed me the proof however 2weeks later still no refund I call the hotel back Ivory the front desk lady who initially medded up my reservation states that I was charged 285 for a no show because I had 3 rooms reserved I informed her about the email conformation that She sent me that clearly has 2 rooms and I also informed her how is it possible to be a no show when I checked in. here it is almost a month later still haven heard from the manager MIKE nor have I received my 285 dollars back . I am so disappointed in this hotel the front desk clerks with the exception of Angel are not as good as they were when we first started visiting Houston maybe and hopefully with this review someone will read it and look into this matter if all else failsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r283894483-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283894483</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Best in town</t>
+  </si>
+  <si>
+    <t>I brought my kids here for the wknd for a little fun..Manager is great an very professional. Front Desk Angel was awesome!! Anything that I needed she was more than happy to assist me. Pool was nice breakfast was good..no complaint what's so ever. I would recommend anyone an everyone to stay here when visiting. The location is so convenient. There's plenty of restaurants, shopping, an activities for the kids close by. Overall this is a great hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Tiffney S, General Manager at Comfort Suites West Energy Corridor, responded to this reviewResponded July 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2015</t>
+  </si>
+  <si>
+    <t>I brought my kids here for the wknd for a little fun..Manager is great an very professional. Front Desk Angel was awesome!! Anything that I needed she was more than happy to assist me. Pool was nice breakfast was good..no complaint what's so ever. I would recommend anyone an everyone to stay here when visiting. The location is so convenient. There's plenty of restaurants, shopping, an activities for the kids close by. Overall this is a great hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r229231066-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229231066</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Clean, nice but.....</t>
+  </si>
+  <si>
+    <t>Stayed here in Aug. Hotel was very nice, clean and quiet but quite a hike from I10.  Too long to get there when you're tired but the bed was very comfortable, so I guess that made up for some of time it took. Breakfast was the normal fare at most hotels. Don't know if I would stay there again unless I had a reason to be in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Tiffney S, General Manager at Comfort Suites West Energy Corridor, responded to this reviewResponded September 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here in Aug. Hotel was very nice, clean and quiet but quite a hike from I10.  Too long to get there when you're tired but the bed was very comfortable, so I guess that made up for some of time it took. Breakfast was the normal fare at most hotels. Don't know if I would stay there again unless I had a reason to be in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r173048770-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>173048770</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>Lucky Find!</t>
+  </si>
+  <si>
+    <t>We had never visited Houston before but had to take an emergency trip to this city to check on a relative.  We came across this hotel because it was in the vicinity of their home and stayed in this hotel for three nights.  The desk clerks were very friendly and helped us with the area and told us  things to do over the 4th of July.  Our room was very clean and spacious.  There was plenty of parking and we felt safe and secure at this facility.  The room was well cleaned each day and the facility was very quiet.  Each day's breakfast was excellent.  They rotated the hot meal choices  each day for variety.  The internet was fast and easy to access.  We had such a good experience at this Comfort Suites that we looked and stayed at this chain as we traveled back home to Illinois.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Tiffney S, General Manager at Comfort Suites West Energy Corridor, responded to this reviewResponded April 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2014</t>
+  </si>
+  <si>
+    <t>We had never visited Houston before but had to take an emergency trip to this city to check on a relative.  We came across this hotel because it was in the vicinity of their home and stayed in this hotel for three nights.  The desk clerks were very friendly and helped us with the area and told us  things to do over the 4th of July.  Our room was very clean and spacious.  There was plenty of parking and we felt safe and secure at this facility.  The room was well cleaned each day and the facility was very quiet.  Each day's breakfast was excellent.  They rotated the hot meal choices  each day for variety.  The internet was fast and easy to access.  We had such a good experience at this Comfort Suites that we looked and stayed at this chain as we traveled back home to Illinois.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r166401705-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166401705</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>I LOVED it!</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights and I was very impressed in my short visit.  To start off, the staff was very accommodating and friendly.  They seemed to genuinely care about the guests and the needs of the guests.  Any questions or requests were met with a smile and someone eager to help in any way possible.  The room was a suite with a king size bed.  It was very spacious, clean, and comfortable.  The free breakfast was a nice touch also.  Overall, I would have to say I will stay here again on my next visit to Houston.  I am sold on the Comfort Suites chain...MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights and I was very impressed in my short visit.  To start off, the staff was very accommodating and friendly.  They seemed to genuinely care about the guests and the needs of the guests.  Any questions or requests were met with a smile and someone eager to help in any way possible.  The room was a suite with a king size bed.  It was very spacious, clean, and comfortable.  The free breakfast was a nice touch also.  Overall, I would have to say I will stay here again on my next visit to Houston.  I am sold on the Comfort Suites chain...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r158850811-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158850811</t>
+  </si>
+  <si>
+    <t>04/26/2013</t>
+  </si>
+  <si>
+    <t>Coming back forever!!!</t>
+  </si>
+  <si>
+    <t>The staff is very friendly to were you feel like family.  Rooms are kept very clean and pretty.  The breakfast is fantastic.  The Manager was very kind and made sure that we was getting the great service that you would expect from a nice hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>The staff is very friendly to were you feel like family.  Rooms are kept very clean and pretty.  The breakfast is fantastic.  The Manager was very kind and made sure that we was getting the great service that you would expect from a nice hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r157687791-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157687791</t>
+  </si>
+  <si>
+    <t>04/14/2013</t>
+  </si>
+  <si>
+    <t>Poor billing practices</t>
+  </si>
+  <si>
+    <t>Be very careful with your receipt and charges when you leave the hotel. The hotel charged my bank account for 4 rooms, instead of 1 !  I checked in on a Friday night and those charges appeared on my account the same night. When i checked my bank account on Sunday morning, I noticed the rate they had on my receipt ( 116.99) was changed to 128 dollars without my authorization !  This is very poor business practice. The manager would not speak to us on Saturday to help resolve the issue. I would not stay here again !MoreShow less</t>
+  </si>
+  <si>
+    <t>Be very careful with your receipt and charges when you leave the hotel. The hotel charged my bank account for 4 rooms, instead of 1 !  I checked in on a Friday night and those charges appeared on my account the same night. When i checked my bank account on Sunday morning, I noticed the rate they had on my receipt ( 116.99) was changed to 128 dollars without my authorization !  This is very poor business practice. The manager would not speak to us on Saturday to help resolve the issue. I would not stay here again !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r155377830-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155377830</t>
+  </si>
+  <si>
+    <t>03/22/2013</t>
+  </si>
+  <si>
+    <t>GENUINE HOSPITALITY</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed here on a number of occasions between August 2012 and January 2013 while working in Houston’s Energy Corridor. We travel about 85% of the year all over the country and genuine hospitality is hard to find.  Our stays here have been a series of wonderful experiences. It is always clean, the desk clerks are always so personable (especially Pam, who goes out of her way always making sure we have whatever we need).  Mrs. Ward, the General Manager, has made sure we have had the room we requested and could not have been any nicer and more professional. When we were late getting in from work on several occasions, Mr. Ward had left dinner in our room for us, which was truly a blessing when we were so hungry and nothing was open at that time of night. Mr. Ward is one fantastic cook, too, and would cook dinner for the guests some nights while we were there. The Wards and their staff made us feel at home, which is a real treat when traveling. They anticipated our needs and made everything convenient. We have stayed there repeatedly and look forward to our next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed here on a number of occasions between August 2012 and January 2013 while working in Houston’s Energy Corridor. We travel about 85% of the year all over the country and genuine hospitality is hard to find.  Our stays here have been a series of wonderful experiences. It is always clean, the desk clerks are always so personable (especially Pam, who goes out of her way always making sure we have whatever we need).  Mrs. Ward, the General Manager, has made sure we have had the room we requested and could not have been any nicer and more professional. When we were late getting in from work on several occasions, Mr. Ward had left dinner in our room for us, which was truly a blessing when we were so hungry and nothing was open at that time of night. Mr. Ward is one fantastic cook, too, and would cook dinner for the guests some nights while we were there. The Wards and their staff made us feel at home, which is a real treat when traveling. They anticipated our needs and made everything convenient. We have stayed there repeatedly and look forward to our next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r153115716-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153115716</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>WORST MANAGER EVER!!!</t>
+  </si>
+  <si>
+    <t>Phyllis Ward you are a embarrassment. And the owner Mike Patel you are either uneducated or completely blind to hire and position Phyllis as a manager of a hotel. Can not resolve any problems the right way at all and when she has to be confronted about it she hides by hanging up phone calls, telling front desk not to transfer you, and now from reading past reviews she hides in the back. The front desk is being taught and trained by a ghetto no mannered manager so they are not to blame the things they have to do and say. Ward is just a puppet for the owner trying to scheme people out of money and do a lot of shady acts. Never ever stay at this hotel people, Houston is large and there are plenty of other nice welcoming places. I would rather sleep in my car then to ever lay foot on this property ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Phyllis Ward you are a embarrassment. And the owner Mike Patel you are either uneducated or completely blind to hire and position Phyllis as a manager of a hotel. Can not resolve any problems the right way at all and when she has to be confronted about it she hides by hanging up phone calls, telling front desk not to transfer you, and now from reading past reviews she hides in the back. The front desk is being taught and trained by a ghetto no mannered manager so they are not to blame the things they have to do and say. Ward is just a puppet for the owner trying to scheme people out of money and do a lot of shady acts. Never ever stay at this hotel people, Houston is large and there are plenty of other nice welcoming places. I would rather sleep in my car then to ever lay foot on this property ever again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r142734361-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142734361</t>
+  </si>
+  <si>
+    <t>10/13/2012</t>
+  </si>
+  <si>
+    <t>TERRIBLE MANAGER!!!</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel once before  and it was a wonderful experence until my last vist! The new manager is the worst I have ever met in entire life. Her Customer service is poor, speaks to guests rudely, unattentive, short memory and acts like you are squatting in her house rather than   a paying guest in a hotel!   lacks what it takes to be a manager in a hotel. Period... maybe she is related to the owner , why she is still there.?? The receptionists are very nice , friendly and always trying to make up for the poor service the manager gives.  That was the last and will never return there again.  If you are looking for somewhere you can feel loved or welcome, look elewhere otherwise you will leave angery and disappointed.!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel once before  and it was a wonderful experence until my last vist! The new manager is the worst I have ever met in entire life. Her Customer service is poor, speaks to guests rudely, unattentive, short memory and acts like you are squatting in her house rather than   a paying guest in a hotel!   lacks what it takes to be a manager in a hotel. Period... maybe she is related to the owner , why she is still there.?? The receptionists are very nice , friendly and always trying to make up for the poor service the manager gives.  That was the last and will never return there again.  If you are looking for somewhere you can feel loved or welcome, look elewhere otherwise you will leave angery and disappointed.!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r142176169-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142176169</t>
+  </si>
+  <si>
+    <t>10/06/2012</t>
+  </si>
+  <si>
+    <t>Comfort Suites West Energy Corridor</t>
+  </si>
+  <si>
+    <t>We stayed at this Hotel for our company  meeting. The Breakfast was fresh out of the kitchen, like your mother would cook. Hot, and very tasty. All fresh foods! The breakfast guy was the world greatest keeping everything clean.  While eating the manager Mrs Ward came to our table and made us feel at home. The next day when we got back from our meeting, she had put cookies in our room with fresh water. We stayed here 4 days, and I visit a lot of hotels, you can't beat this place. In the middle of the night, our TV went out, and the tv was repaired in the middle of the night! Great staff, and great food! Very cleanMoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this Hotel for our company  meeting. The Breakfast was fresh out of the kitchen, like your mother would cook. Hot, and very tasty. All fresh foods! The breakfast guy was the world greatest keeping everything clean.  While eating the manager Mrs Ward came to our table and made us feel at home. The next day when we got back from our meeting, she had put cookies in our room with fresh water. We stayed here 4 days, and I visit a lot of hotels, you can't beat this place. In the middle of the night, our TV went out, and the tv was repaired in the middle of the night! Great staff, and great food! Very cleanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r141156492-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141156492</t>
+  </si>
+  <si>
+    <t>09/24/2012</t>
+  </si>
+  <si>
+    <t>Worst customer service ever. DO NOT STAY HERE.</t>
+  </si>
+  <si>
+    <t>The manager Phyliss Ward is negligent, unqualified and unprofessional. She does not care about her customers and should not be in this industry imo. The rest of the staff was friendly but quite untrained. The hotel is nice but I recommend you stay at another hotel if you want to avoid a headache and some unexplained hidden fees.
+My family booked this hotel via Expedia because their website indicated that this establishment is pet friendly. I even confirmed this with the girl at the front desk when I check into the hotel later that day. I asked her if there was a pet deposit fee and she told me that their was none. The next day, as I was walking my dog downstairs another front desk receptionist told me that this hotel did not allow dogs. I quickly informed her that this must have been a mistake since their Expedia page and the girl at the front desk last night told me otherwise. She retorted that the website needed to be updated and that the girl did not know what she was talking about. After consulting with her manager, I was told that they would accommodate us if we gave them a 150$ cash deposit. My family was willing to give them the money,but all we asked was that they in turn give us a official receipt of the transaction. They refused to give us a receipt. Uncomfortable with the...The manager Phyliss Ward is negligent, unqualified and unprofessional. She does not care about her customers and should not be in this industry imo. The rest of the staff was friendly but quite untrained. The hotel is nice but I recommend you stay at another hotel if you want to avoid a headache and some unexplained hidden fees.My family booked this hotel via Expedia because their website indicated that this establishment is pet friendly. I even confirmed this with the girl at the front desk when I check into the hotel later that day. I asked her if there was a pet deposit fee and she told me that their was none. The next day, as I was walking my dog downstairs another front desk receptionist told me that this hotel did not allow dogs. I quickly informed her that this must have been a mistake since their Expedia page and the girl at the front desk last night told me otherwise. She retorted that the website needed to be updated and that the girl did not know what she was talking about. After consulting with her manager, I was told that they would accommodate us if we gave them a 150$ cash deposit. My family was willing to give them the money,but all we asked was that they in turn give us a official receipt of the transaction. They refused to give us a receipt. Uncomfortable with the fact of giving them cash without documentation after they the have already made past mistakes we told them we would not give them the money unless they were willing to draft an official receipt. After disagreeing, the manager told the the girl at the front desk to tell us that we were kicked out and had ten minutes to leave. I then asked the girl at the front desk to see the manager in person, in which she replied "My manager doesn't want to see you". Since we booked for two days and only stayed for one, we informed the girl that we will be needing a refund for the one day otherwise we will be contacting our attorney. Immediately after we arrived back to our room to pack, we got a call from Phyllis Ward. I informed her that we wanted a refund for the day we weren't staying which was the least the hotel could have done for us especially since they made a mistake and are kicking us out instead of apologizing. She abrasively told me that their will be no refund, in which i replied that she'll be hearing my attorney. As we were leaving, the girl at the front desk showed us a receipt of our stay with a zero balance. Thinking that we received a full refund we gladly left the hotel, hoping to never have to think about this horrid experience ever again. A month later, I looked at my bank statement and to my surprise, not only did they not give me refund, they actually charged me an additional day separate to what I had paid to Expedia. So in total, I paid the two nights stay I original booked via Expedia along with an additional one day charge the hotel made on my card. Expedia had to call the hotel to confirmed all the details in order to give me my money back and later told me they could not because the hotel said they will still be charging for the two nights. Currently, I am on hold with Expedia sorting everything out because the hotel management failed to inform Expedia that they charged our card separately. It has been two hours, because the Expedia rep is trying to get in contact with the manager. Needless to say, this has been the worst hotel experience in my life.For the entirety of this nightmare, we have not once talked to the manager, Phyllis Ward, in person. Instead of stepping in and mediating the situation she chose to ignore it. Not once did we hear them apologize for their mistakes. In addition, I had my extended family book the hotel at the same time we were there. After my aunt's family checked out, they were shocked to see a  $170 fee on their bill. They were informed by the front desk receptionist that it was because their 3 year old was running down the hall and they proceeded to play a video of it to her. They never warned them about a no running fee for kids prior to charging them and there was also another family disgruntled to find the same charge on their bill. I never write reviews but for this hotel experience I'm making an exception. In summation, DO NOT STAY HERE. This completely ruined out family's weekend. I will never again book via Expedia, nor am I ever stepping foot in this hotel ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>The manager Phyliss Ward is negligent, unqualified and unprofessional. She does not care about her customers and should not be in this industry imo. The rest of the staff was friendly but quite untrained. The hotel is nice but I recommend you stay at another hotel if you want to avoid a headache and some unexplained hidden fees.
+My family booked this hotel via Expedia because their website indicated that this establishment is pet friendly. I even confirmed this with the girl at the front desk when I check into the hotel later that day. I asked her if there was a pet deposit fee and she told me that their was none. The next day, as I was walking my dog downstairs another front desk receptionist told me that this hotel did not allow dogs. I quickly informed her that this must have been a mistake since their Expedia page and the girl at the front desk last night told me otherwise. She retorted that the website needed to be updated and that the girl did not know what she was talking about. After consulting with her manager, I was told that they would accommodate us if we gave them a 150$ cash deposit. My family was willing to give them the money,but all we asked was that they in turn give us a official receipt of the transaction. They refused to give us a receipt. Uncomfortable with the...The manager Phyliss Ward is negligent, unqualified and unprofessional. She does not care about her customers and should not be in this industry imo. The rest of the staff was friendly but quite untrained. The hotel is nice but I recommend you stay at another hotel if you want to avoid a headache and some unexplained hidden fees.My family booked this hotel via Expedia because their website indicated that this establishment is pet friendly. I even confirmed this with the girl at the front desk when I check into the hotel later that day. I asked her if there was a pet deposit fee and she told me that their was none. The next day, as I was walking my dog downstairs another front desk receptionist told me that this hotel did not allow dogs. I quickly informed her that this must have been a mistake since their Expedia page and the girl at the front desk last night told me otherwise. She retorted that the website needed to be updated and that the girl did not know what she was talking about. After consulting with her manager, I was told that they would accommodate us if we gave them a 150$ cash deposit. My family was willing to give them the money,but all we asked was that they in turn give us a official receipt of the transaction. They refused to give us a receipt. Uncomfortable with the fact of giving them cash without documentation after they the have already made past mistakes we told them we would not give them the money unless they were willing to draft an official receipt. After disagreeing, the manager told the the girl at the front desk to tell us that we were kicked out and had ten minutes to leave. I then asked the girl at the front desk to see the manager in person, in which she replied "My manager doesn't want to see you". Since we booked for two days and only stayed for one, we informed the girl that we will be needing a refund for the one day otherwise we will be contacting our attorney. Immediately after we arrived back to our room to pack, we got a call from Phyllis Ward. I informed her that we wanted a refund for the day we weren't staying which was the least the hotel could have done for us especially since they made a mistake and are kicking us out instead of apologizing. She abrasively told me that their will be no refund, in which i replied that she'll be hearing my attorney. As we were leaving, the girl at the front desk showed us a receipt of our stay with a zero balance. Thinking that we received a full refund we gladly left the hotel, hoping to never have to think about this horrid experience ever again. A month later, I looked at my bank statement and to my surprise, not only did they not give me refund, they actually charged me an additional day separate to what I had paid to Expedia. So in total, I paid the two nights stay I original booked via Expedia along with an additional one day charge the hotel made on my card. Expedia had to call the hotel to confirmed all the details in order to give me my money back and later told me they could not because the hotel said they will still be charging for the two nights. Currently, I am on hold with Expedia sorting everything out because the hotel management failed to inform Expedia that they charged our card separately. It has been two hours, because the Expedia rep is trying to get in contact with the manager. Needless to say, this has been the worst hotel experience in my life.For the entirety of this nightmare, we have not once talked to the manager, Phyllis Ward, in person. Instead of stepping in and mediating the situation she chose to ignore it. Not once did we hear them apologize for their mistakes. In addition, I had my extended family book the hotel at the same time we were there. After my aunt's family checked out, they were shocked to see a  $170 fee on their bill. They were informed by the front desk receptionist that it was because their 3 year old was running down the hall and they proceeded to play a video of it to her. They never warned them about a no running fee for kids prior to charging them and there was also another family disgruntled to find the same charge on their bill. I never write reviews but for this hotel experience I'm making an exception. In summation, DO NOT STAY HERE. This completely ruined out family's weekend. I will never again book via Expedia, nor am I ever stepping foot in this hotel ever again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r132565049-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132565049</t>
+  </si>
+  <si>
+    <t>06/22/2012</t>
+  </si>
+  <si>
+    <t>Summer 2011 Memories!</t>
+  </si>
+  <si>
+    <t>I've stayed here several times. I lost count! I used to work for Choice Hotels and would stay here under my employee rate, but now I am with Hilton. The staff were always kind/helpful, the room was always clean/always smelled fresh, fitness center was decent size/clean, parking was convenient, and parking lot was well lit. ...I feel a little juvenile writing this on here, but after a long night of drinking with whom I have now been with for a year, I stumbled into the maintenance room (which I thought was my room at the time). My only concern is that it should have been locked being that a child could have wandered into it and severely hurt themselves.I have so many memories here! Every time I pass by this hotel on Hwy 6, I smile because I remember that it is where fell in love of all places. I am still with that person a year later :)MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>I've stayed here several times. I lost count! I used to work for Choice Hotels and would stay here under my employee rate, but now I am with Hilton. The staff were always kind/helpful, the room was always clean/always smelled fresh, fitness center was decent size/clean, parking was convenient, and parking lot was well lit. ...I feel a little juvenile writing this on here, but after a long night of drinking with whom I have now been with for a year, I stumbled into the maintenance room (which I thought was my room at the time). My only concern is that it should have been locked being that a child could have wandered into it and severely hurt themselves.I have so many memories here! Every time I pass by this hotel on Hwy 6, I smile because I remember that it is where fell in love of all places. I am still with that person a year later :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r132278695-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132278695</t>
+  </si>
+  <si>
+    <t>06/18/2012</t>
+  </si>
+  <si>
+    <t>Loved it</t>
+  </si>
+  <si>
+    <t>My husband, 4 year old, and I just returned from our weekend stay at this hotel. I don't have one complaint. The staff was nice and check-in was quick. The room was clean and spacious. We stayed in the 2 queens suite that included a sleeper sofa and a flat screen tv. The room was large enough that our 4 year old had plenty of room to move around and play with his toys. The breakfast was also very good. We were treated to eggs, bacon, sausage, biscuits, smothered potatoes, a waffle maker, cereals, apples, oatmeal, cinnamon rolls, fruit, and juices. There were also two restaurants that were in walking distance, including Ryan's Buffet and KFC. There were several restaurants within 5 minute driving distance. The pool area was also clean and well maintained. It was only 5 ft deep, which was good enough for us. The only negative was the workout room that was definitely lacking. Other than that, we loved the hotel and will definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>My husband, 4 year old, and I just returned from our weekend stay at this hotel. I don't have one complaint. The staff was nice and check-in was quick. The room was clean and spacious. We stayed in the 2 queens suite that included a sleeper sofa and a flat screen tv. The room was large enough that our 4 year old had plenty of room to move around and play with his toys. The breakfast was also very good. We were treated to eggs, bacon, sausage, biscuits, smothered potatoes, a waffle maker, cereals, apples, oatmeal, cinnamon rolls, fruit, and juices. There were also two restaurants that were in walking distance, including Ryan's Buffet and KFC. There were several restaurants within 5 minute driving distance. The pool area was also clean and well maintained. It was only 5 ft deep, which was good enough for us. The only negative was the workout room that was definitely lacking. Other than that, we loved the hotel and will definitely return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r124176851-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124176851</t>
+  </si>
+  <si>
+    <t>02/05/2012</t>
+  </si>
+  <si>
+    <t>Good value, great staff, disliked the area</t>
+  </si>
+  <si>
+    <t>I chose this location because it was very close to the business I was visiting.  The staff is friendly, the price was reasonable. Breakfast consisted of scrambled eggs, meat, cereal, yogurt, muffins, milk and juice.Despite being close to the business, I really disliked the area.  Traffic was busy; there are LOTS of fast food restaurants but no full service, and is far from the better known Houston shopping and attractions.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r123323699-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123323699</t>
+  </si>
+  <si>
+    <t>01/19/2012</t>
+  </si>
+  <si>
+    <t>Business Stay</t>
+  </si>
+  <si>
+    <t>I decided to stay at this hotel during a recent business trip.  The staff was very friendly and made me feel welcome from the minute i checked in.  The room was very clean.  I would definitely stay here again and will be suggesting this hotel to my colleagues for their future travels to our office int he energy corridor.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r121603929-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121603929</t>
+  </si>
+  <si>
+    <t>12/10/2011</t>
+  </si>
+  <si>
+    <t>very nice hotel in safe area</t>
+  </si>
+  <si>
+    <t>hotel located close to dining areas, West Oak mall with Macy's,Dillards, Sears etc, very convenient that its right next to HWY 6. Hotel staff is very friendly and helpful. Rooms are very spacious and very clean,building is fairly new, serve hot breakfast  in the morning. No smoking rooms here.Elevator is little slow. I would recommend anybody this hotel.We stayed in different hotel, so i was very happy that we choose this one</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r119484606-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119484606</t>
+  </si>
+  <si>
+    <t>10/19/2011</t>
+  </si>
+  <si>
+    <t>Abuse of the elderly</t>
+  </si>
+  <si>
+    <t>Comfort suites 7111 Rancho Mission Drive Houston TX 77083An elderly 83 year old woman, who was a guest at this hotel, was having breakfast in the morning. She had dry-mouth due to the medication she was taking. She asked for a bottle of water with her meal. She was told to go drink from the fountain. When she repeated her request for a bottled water, she was told the case of bottled water was locked in the manager's office.When the manager arrived, the manager called the police: she said she did not want this elderly woman on the premise. The senior citizen want to get her things from the room and the police said if she did not leave immediately, she will be arrested. The elderly woman left the premise. Some other guests had to go to her room to collect her things. This happened before the checkout time which is a violation of the written contract her had with Comfort Suites at check in.I used to think that Comfort suties was a good hotel but it appears their public relations need a lot of work.This elderly woman should have been given a bottle of water as she requested even if they had to charge it to her room.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Comfort suites 7111 Rancho Mission Drive Houston TX 77083An elderly 83 year old woman, who was a guest at this hotel, was having breakfast in the morning. She had dry-mouth due to the medication she was taking. She asked for a bottle of water with her meal. She was told to go drink from the fountain. When she repeated her request for a bottled water, she was told the case of bottled water was locked in the manager's office.When the manager arrived, the manager called the police: she said she did not want this elderly woman on the premise. The senior citizen want to get her things from the room and the police said if she did not leave immediately, she will be arrested. The elderly woman left the premise. Some other guests had to go to her room to collect her things. This happened before the checkout time which is a violation of the written contract her had with Comfort Suites at check in.I used to think that Comfort suties was a good hotel but it appears their public relations need a lot of work.This elderly woman should have been given a bottle of water as she requested even if they had to charge it to her room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r80363410-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>80363410</t>
+  </si>
+  <si>
+    <t>09/20/2010</t>
+  </si>
+  <si>
+    <t>Beware of BED BUGS!!</t>
+  </si>
+  <si>
+    <t>I stayed here for one night on a business trip and regret it! I left here with bed bug bites all over my legs.  The walls are paper thin...to the point where I can hear the next door neighbor spitting.  The water pressure for the shower was really low no matter which setting you have the shower head on.  The wireless internet was so slow too.The rooms are roomy, but it's infested!!</t>
+  </si>
+  <si>
+    <t>September 2010</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1014,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1046,1529 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>99</v>
+      </c>
+      <c r="X9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>99</v>
+      </c>
+      <c r="X10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>99</v>
+      </c>
+      <c r="X11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>99</v>
+      </c>
+      <c r="X12" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>99</v>
+      </c>
+      <c r="X13" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>142</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>99</v>
+      </c>
+      <c r="X14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>99</v>
+      </c>
+      <c r="X16" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>169</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" t="s">
+        <v>175</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>176</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" t="s">
+        <v>192</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>193</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J23" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>200</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_129.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_129.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r503583109-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1583951</t>
+  </si>
+  <si>
+    <t>503583109</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Nice nice for the $$$</t>
+  </si>
+  <si>
+    <t>I had a conference in February and stayed here. The front desk personnel was very pleasant and able to efficiently check in and advise components of our trip. Room was nice AC was ice cold which I love. Breakfast was available in the am with variety. It was well lit at night which I thought was positive. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Lew B, General Manager at Comfort Suites West Energy Corridor, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>I had a conference in February and stayed here. The front desk personnel was very pleasant and able to efficiently check in and advise components of our trip. Room was nice AC was ice cold which I love. Breakfast was available in the am with variety. It was well lit at night which I thought was positive. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r483987237-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483987237</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>Internet wifi not working; poor customer service; rooms need update</t>
+  </si>
+  <si>
+    <t>There are 5 people in our group and I reserved a two-bed suite with a sofabed. When I checked in, I requested 4 room keys. The customer service representative refused to provide 4 room keys and stated "We only provide two room keys for security reasons.".  What? I've never heard of it. I've been staying in Comfort suites many times recently and they all use the same room key systems. I had never had any trouble requesting 4 or even 6 keys in the past. The customer service representative at the counter was unfriendly and borderline rude. The room is not great either. The refrigerator door was broken. The room walls has patches and unpainted spots. You don't want to stay here if you have other options. The hotel wifi doesn't work at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Lew B, General Manager at Comfort Suites West Energy Corridor, responded to this reviewResponded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2017</t>
+  </si>
+  <si>
+    <t>There are 5 people in our group and I reserved a two-bed suite with a sofabed. When I checked in, I requested 4 room keys. The customer service representative refused to provide 4 room keys and stated "We only provide two room keys for security reasons.".  What? I've never heard of it. I've been staying in Comfort suites many times recently and they all use the same room key systems. I had never had any trouble requesting 4 or even 6 keys in the past. The customer service representative at the counter was unfriendly and borderline rude. The room is not great either. The refrigerator door was broken. The room walls has patches and unpainted spots. You don't want to stay here if you have other options. The hotel wifi doesn't work at all.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r468415867-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1583951</t>
-  </si>
-  <si>
     <t>468415867</t>
   </si>
   <si>
@@ -174,9 +234,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r452913054-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -195,9 +252,6 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r449998722-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -219,6 +273,42 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r441560607-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441560607</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>JUST AN OVERNIGHT STAY</t>
+  </si>
+  <si>
+    <t>I just stayed for one night to do a sport show on cricket which was played at Moosa  stadium Pearland, TXand, I find my stay comfortable, staff is good along with nice breakfast and location is very convenient.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r440343536-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440343536</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>quiet, cozy but not small</t>
+  </si>
+  <si>
+    <t>Selected this place because of its location....around the corner from Signature Manor. I had to attend a wedding at this venue and did not want to make the long drive home after midnight. Can't say how welcoming this place is. Clean can't describe it....spotless maybe. Plenty of places to eat near by...one right across the street....others a short walk or drive. Breakfast was the average extended that you get at hotels but eating area is quite large. A little road noise in rooms that face the front, so ask for a room on the back side of the hotel.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r361791393-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -297,6 +387,54 @@
     <t>Stayed here in Aug. Hotel was very nice, clean and quiet but quite a hike from I10.  Too long to get there when you're tired but the bed was very comfortable, so I guess that made up for some of time it took. Breakfast was the normal fare at most hotels. Don't know if I would stay there again unless I had a reason to be in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r198781384-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198781384</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>Clean. Nice. Value for the Money.</t>
+  </si>
+  <si>
+    <t>This hotel was clean.  Everyone was nice.  And it was a good value for the money.  Although it was about 4 years old (built around 2000) it still looked almost new -- good maintenance.  It is next door to a KFC, so food is close by if you are tired.  And traveling to meetings is easy, because you can take Bellaire or Westheimer into the city... or the Westpark tollroad or 10.  So lots of driving choices, especially helpful if traffic is clogged somewhere.  I gave 4 stars and not 5 because there is no view and this is not a resort type experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Tiffney S, Manager at Comfort Suites West Energy Corridor, responded to this reviewResponded April 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was clean.  Everyone was nice.  And it was a good value for the money.  Although it was about 4 years old (built around 2000) it still looked almost new -- good maintenance.  It is next door to a KFC, so food is close by if you are tired.  And traveling to meetings is easy, because you can take Bellaire or Westheimer into the city... or the Westpark tollroad or 10.  So lots of driving choices, especially helpful if traffic is clogged somewhere.  I gave 4 stars and not 5 because there is no view and this is not a resort type experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r177729476-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>177729476</t>
+  </si>
+  <si>
+    <t>09/18/2013</t>
+  </si>
+  <si>
+    <t>Should I say "perfect".  Yes!!</t>
+  </si>
+  <si>
+    <t>Tiffany welcomed us like family to begin our stay. Our room was sooo comfortable, quiet, and clean. Breakfast was a very good selection of hot and cold items and several juices or coffee. The breakfast area is large with several tables and chairs. The sheets were crisp and fresh and the beds were very comfortable. We have stayed at Comfort Suites all over the U.S. and this is one of the bestMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Tiffany welcomed us like family to begin our stay. Our room was sooo comfortable, quiet, and clean. Breakfast was a very good selection of hot and cold items and several juices or coffee. The breakfast area is large with several tables and chairs. The sheets were crisp and fresh and the beds were very comfortable. We have stayed at Comfort Suites all over the U.S. and this is one of the bestMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r173048770-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -318,9 +456,6 @@
     <t>Tiffney S, General Manager at Comfort Suites West Energy Corridor, responded to this reviewResponded April 1, 2014</t>
   </si>
   <si>
-    <t>Responded April 1, 2014</t>
-  </si>
-  <si>
     <t>We had never visited Houston before but had to take an emergency trip to this city to check on a relative.  We came across this hotel because it was in the vicinity of their home and stayed in this hotel for three nights.  The desk clerks were very friendly and helped us with the area and told us  things to do over the 4th of July.  Our room was very clean and spacious.  There was plenty of parking and we felt safe and secure at this facility.  The room was well cleaned each day and the facility was very quiet.  Each day's breakfast was excellent.  They rotated the hot meal choices  each day for variety.  The internet was fast and easy to access.  We had such a good experience at this Comfort Suites that we looked and stayed at this chain as we traveled back home to Illinois.More</t>
   </si>
   <si>
@@ -366,6 +501,42 @@
     <t>The staff is very friendly to were you feel like family.  Rooms are kept very clean and pretty.  The breakfast is fantastic.  The Manager was very kind and made sure that we was getting the great service that you would expect from a nice hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r158845507-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158845507</t>
+  </si>
+  <si>
+    <t>My Recent Stay at the Comfort Suites - West Energy Corridor</t>
+  </si>
+  <si>
+    <t>I read several negative things about this hotel, but decided to give it a try for one night and see what happens. To my Surprise, they just recently changed management andsome changes to the Staff. My Suites ( It is an all Suite Hotel) was very Clean..So Great work Housekeeping... Breakfast was included and was very good. They serve four hot items as well as make your own waffles.. Great Choice. The Front Desk staff although pretty new seemed to be very nice and accommodating to take care of my needs.So all around my first night was Great, so I cancelled my other reservation I had as a backup and stayed for three more great nights.Keep up the Good work and I am sure you will enjoy your stay there too.ThomasMoreShow less</t>
+  </si>
+  <si>
+    <t>I read several negative things about this hotel, but decided to give it a try for one night and see what happens. To my Surprise, they just recently changed management andsome changes to the Staff. My Suites ( It is an all Suite Hotel) was very Clean..So Great work Housekeeping... Breakfast was included and was very good. They serve four hot items as well as make your own waffles.. Great Choice. The Front Desk staff although pretty new seemed to be very nice and accommodating to take care of my needs.So all around my first night was Great, so I cancelled my other reservation I had as a backup and stayed for three more great nights.Keep up the Good work and I am sure you will enjoy your stay there too.ThomasMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r158146714-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158146714</t>
+  </si>
+  <si>
+    <t>04/18/2013</t>
+  </si>
+  <si>
+    <t>BAD BAD BADDDDDD EXTREMELY BAD SERVICE</t>
+  </si>
+  <si>
+    <t>the manager is terrible.  you will be ripped off.  do not stay at this hotel. I repeated don't stay at this hotel.  It has bad service, lousy rooms, way over charged, and everything else in between,  DO YOURSELF A FAVOR, don't stay here.  and by the way,  they need to FIRE the manager.  FIRE HER right now.  she needs to learn how to deal with customers.  she had bad behaviors, bad attitude, and need to be out of the office.  FIRE HER!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>the manager is terrible.  you will be ripped off.  do not stay at this hotel. I repeated don't stay at this hotel.  It has bad service, lousy rooms, way over charged, and everything else in between,  DO YOURSELF A FAVOR, don't stay here.  and by the way,  they need to FIRE the manager.  FIRE HER right now.  she needs to learn how to deal with customers.  she had bad behaviors, bad attitude, and need to be out of the office.  FIRE HER!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r157687791-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -426,6 +597,42 @@
     <t>Phyllis Ward you are a embarrassment. And the owner Mike Patel you are either uneducated or completely blind to hire and position Phyllis as a manager of a hotel. Can not resolve any problems the right way at all and when she has to be confronted about it she hides by hanging up phone calls, telling front desk not to transfer you, and now from reading past reviews she hides in the back. The front desk is being taught and trained by a ghetto no mannered manager so they are not to blame the things they have to do and say. Ward is just a puppet for the owner trying to scheme people out of money and do a lot of shady acts. Never ever stay at this hotel people, Houston is large and there are plenty of other nice welcoming places. I would rather sleep in my car then to ever lay foot on this property ever again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r150709921-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150709921</t>
+  </si>
+  <si>
+    <t>01/26/2013</t>
+  </si>
+  <si>
+    <t>Beware bed bugs</t>
+  </si>
+  <si>
+    <t>Two night stay led to bed bug bites over my body. Also problems at check in and check out. I would never recommend anyone to stay here. Staff seemed nice and the room was big. Again, the big problem here is bed bugs!MoreShow less</t>
+  </si>
+  <si>
+    <t>Two night stay led to bed bug bites over my body. Also problems at check in and check out. I would never recommend anyone to stay here. Staff seemed nice and the room was big. Again, the big problem here is bed bugs!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r147641555-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147641555</t>
+  </si>
+  <si>
+    <t>12/17/2012</t>
+  </si>
+  <si>
+    <t>Best stay ever</t>
+  </si>
+  <si>
+    <t>Everyone was very nice. When we needed help with something they helped with a smile on their face. the rooms were very clean and made my stay here enjoyable. i cant wait to visit again and stay in the same hotel.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r142734361-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -442,9 +649,6 @@
   </si>
   <si>
     <t>October 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>I stayed in this hotel once before  and it was a wonderful experence until my last vist! The new manager is the worst I have ever met in entire life. Her Customer service is poor, speaks to guests rudely, unattentive, short memory and acts like you are squatting in her house rather than   a paying guest in a hotel!   lacks what it takes to be a manager in a hotel. Period... maybe she is related to the owner , why she is still there.?? The receptionists are very nice , friendly and always trying to make up for the poor service the manager gives.  That was the last and will never return there again.  If you are looking for somewhere you can feel loved or welcome, look elewhere otherwise you will leave angery and disappointed.!!!More</t>
@@ -484,13 +688,62 @@
 My family booked this hotel via Expedia because their website indicated that this establishment is pet friendly. I even confirmed this with the girl at the front desk when I check into the hotel later that day. I asked her if there was a pet deposit fee and she told me that their was none. The next day, as I was walking my dog downstairs another front desk receptionist told me that this hotel did not allow dogs. I quickly informed her that this must have been a mistake since their Expedia page and the girl at the front desk last night told me otherwise. She retorted that the website needed to be updated and that the girl did not know what she was talking about. After consulting with her manager, I was told that they would accommodate us if we gave them a 150$ cash deposit. My family was willing to give them the money,but all we asked was that they in turn give us a official receipt of the transaction. They refused to give us a receipt. Uncomfortable with the...The manager Phyliss Ward is negligent, unqualified and unprofessional. She does not care about her customers and should not be in this industry imo. The rest of the staff was friendly but quite untrained. The hotel is nice but I recommend you stay at another hotel if you want to avoid a headache and some unexplained hidden fees.My family booked this hotel via Expedia because their website indicated that this establishment is pet friendly. I even confirmed this with the girl at the front desk when I check into the hotel later that day. I asked her if there was a pet deposit fee and she told me that their was none. The next day, as I was walking my dog downstairs another front desk receptionist told me that this hotel did not allow dogs. I quickly informed her that this must have been a mistake since their Expedia page and the girl at the front desk last night told me otherwise. She retorted that the website needed to be updated and that the girl did not know what she was talking about. After consulting with her manager, I was told that they would accommodate us if we gave them a 150$ cash deposit. My family was willing to give them the money,but all we asked was that they in turn give us a official receipt of the transaction. They refused to give us a receipt. Uncomfortable with the fact of giving them cash without documentation after they the have already made past mistakes we told them we would not give them the money unless they were willing to draft an official receipt. After disagreeing, the manager told the the girl at the front desk to tell us that we were kicked out and had ten minutes to leave. I then asked the girl at the front desk to see the manager in person, in which she replied "My manager doesn't want to see you". Since we booked for two days and only stayed for one, we informed the girl that we will be needing a refund for the one day otherwise we will be contacting our attorney. Immediately after we arrived back to our room to pack, we got a call from Phyllis Ward. I informed her that we wanted a refund for the day we weren't staying which was the least the hotel could have done for us especially since they made a mistake and are kicking us out instead of apologizing. She abrasively told me that their will be no refund, in which i replied that she'll be hearing my attorney. As we were leaving, the girl at the front desk showed us a receipt of our stay with a zero balance. Thinking that we received a full refund we gladly left the hotel, hoping to never have to think about this horrid experience ever again. A month later, I looked at my bank statement and to my surprise, not only did they not give me refund, they actually charged me an additional day separate to what I had paid to Expedia. So in total, I paid the two nights stay I original booked via Expedia along with an additional one day charge the hotel made on my card. Expedia had to call the hotel to confirmed all the details in order to give me my money back and later told me they could not because the hotel said they will still be charging for the two nights. Currently, I am on hold with Expedia sorting everything out because the hotel management failed to inform Expedia that they charged our card separately. It has been two hours, because the Expedia rep is trying to get in contact with the manager. Needless to say, this has been the worst hotel experience in my life.For the entirety of this nightmare, we have not once talked to the manager, Phyllis Ward, in person. Instead of stepping in and mediating the situation she chose to ignore it. Not once did we hear them apologize for their mistakes. In addition, I had my extended family book the hotel at the same time we were there. After my aunt's family checked out, they were shocked to see a  $170 fee on their bill. They were informed by the front desk receptionist that it was because their 3 year old was running down the hall and they proceeded to play a video of it to her. They never warned them about a no running fee for kids prior to charging them and there was also another family disgruntled to find the same charge on their bill. I never write reviews but for this hotel experience I'm making an exception. In summation, DO NOT STAY HERE. This completely ruined out family's weekend. I will never again book via Expedia, nor am I ever stepping foot in this hotel ever again.MoreShow less</t>
   </si>
   <si>
-    <t>August 2012</t>
-  </si>
-  <si>
     <t>The manager Phyliss Ward is negligent, unqualified and unprofessional. She does not care about her customers and should not be in this industry imo. The rest of the staff was friendly but quite untrained. The hotel is nice but I recommend you stay at another hotel if you want to avoid a headache and some unexplained hidden fees.
 My family booked this hotel via Expedia because their website indicated that this establishment is pet friendly. I even confirmed this with the girl at the front desk when I check into the hotel later that day. I asked her if there was a pet deposit fee and she told me that their was none. The next day, as I was walking my dog downstairs another front desk receptionist told me that this hotel did not allow dogs. I quickly informed her that this must have been a mistake since their Expedia page and the girl at the front desk last night told me otherwise. She retorted that the website needed to be updated and that the girl did not know what she was talking about. After consulting with her manager, I was told that they would accommodate us if we gave them a 150$ cash deposit. My family was willing to give them the money,but all we asked was that they in turn give us a official receipt of the transaction. They refused to give us a receipt. Uncomfortable with the...The manager Phyliss Ward is negligent, unqualified and unprofessional. She does not care about her customers and should not be in this industry imo. The rest of the staff was friendly but quite untrained. The hotel is nice but I recommend you stay at another hotel if you want to avoid a headache and some unexplained hidden fees.My family booked this hotel via Expedia because their website indicated that this establishment is pet friendly. I even confirmed this with the girl at the front desk when I check into the hotel later that day. I asked her if there was a pet deposit fee and she told me that their was none. The next day, as I was walking my dog downstairs another front desk receptionist told me that this hotel did not allow dogs. I quickly informed her that this must have been a mistake since their Expedia page and the girl at the front desk last night told me otherwise. She retorted that the website needed to be updated and that the girl did not know what she was talking about. After consulting with her manager, I was told that they would accommodate us if we gave them a 150$ cash deposit. My family was willing to give them the money,but all we asked was that they in turn give us a official receipt of the transaction. They refused to give us a receipt. Uncomfortable with the fact of giving them cash without documentation after they the have already made past mistakes we told them we would not give them the money unless they were willing to draft an official receipt. After disagreeing, the manager told the the girl at the front desk to tell us that we were kicked out and had ten minutes to leave. I then asked the girl at the front desk to see the manager in person, in which she replied "My manager doesn't want to see you". Since we booked for two days and only stayed for one, we informed the girl that we will be needing a refund for the one day otherwise we will be contacting our attorney. Immediately after we arrived back to our room to pack, we got a call from Phyllis Ward. I informed her that we wanted a refund for the day we weren't staying which was the least the hotel could have done for us especially since they made a mistake and are kicking us out instead of apologizing. She abrasively told me that their will be no refund, in which i replied that she'll be hearing my attorney. As we were leaving, the girl at the front desk showed us a receipt of our stay with a zero balance. Thinking that we received a full refund we gladly left the hotel, hoping to never have to think about this horrid experience ever again. A month later, I looked at my bank statement and to my surprise, not only did they not give me refund, they actually charged me an additional day separate to what I had paid to Expedia. So in total, I paid the two nights stay I original booked via Expedia along with an additional one day charge the hotel made on my card. Expedia had to call the hotel to confirmed all the details in order to give me my money back and later told me they could not because the hotel said they will still be charging for the two nights. Currently, I am on hold with Expedia sorting everything out because the hotel management failed to inform Expedia that they charged our card separately. It has been two hours, because the Expedia rep is trying to get in contact with the manager. Needless to say, this has been the worst hotel experience in my life.For the entirety of this nightmare, we have not once talked to the manager, Phyllis Ward, in person. Instead of stepping in and mediating the situation she chose to ignore it. Not once did we hear them apologize for their mistakes. In addition, I had my extended family book the hotel at the same time we were there. After my aunt's family checked out, they were shocked to see a  $170 fee on their bill. They were informed by the front desk receptionist that it was because their 3 year old was running down the hall and they proceeded to play a video of it to her. They never warned them about a no running fee for kids prior to charging them and there was also another family disgruntled to find the same charge on their bill. I never write reviews but for this hotel experience I'm making an exception. In summation, DO NOT STAY HERE. This completely ruined out family's weekend. I will never again book via Expedia, nor am I ever stepping foot in this hotel ever again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r140295965-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140295965</t>
+  </si>
+  <si>
+    <t>09/14/2012</t>
+  </si>
+  <si>
+    <t>Nice property; ridiculous management</t>
+  </si>
+  <si>
+    <t>Hotel was built in 2011; is in nice condition. That about does it for the positives. I made a reservation over the phone with my credit card for a two night stay. When I checked in, I presented a different credit card for payment, and asked attendant to please charge my room to that card. This was never done, even though I complained to the front desk once during my stay that the charges were posting to the wrong account. Next problem? Cold breakfast. There didn't seem to be a lot of guests at the hotel, even though it was a Friday night. The "hot" breakfast items were cold. Next on the list -- foolish negligence. Hotel had carpeted stairways with tile landings. Professional carpet cleaners were working during my stay. I left mid afternoon to go to an appointment, and there was no equipment in the stairwell. When I got to the bottom floor, I found myself on the ground on my right knee. I had slipped in a puddle of water on the tile. It's Houston; people wear flip flops. Come on. Luckily I wasn't injured badly.
+I went to the front desk to let the attendant know, and he just said, "Oh, yes, well they are cleaning the carpets." I replied that no, he didn't understand, there was no equipment or hoses or anything visible in the stairwell, and I fell down in a puddle of water,...Hotel was built in 2011; is in nice condition. That about does it for the positives. I made a reservation over the phone with my credit card for a two night stay. When I checked in, I presented a different credit card for payment, and asked attendant to please charge my room to that card. This was never done, even though I complained to the front desk once during my stay that the charges were posting to the wrong account. Next problem? Cold breakfast. There didn't seem to be a lot of guests at the hotel, even though it was a Friday night. The "hot" breakfast items were cold. Next on the list -- foolish negligence. Hotel had carpeted stairways with tile landings. Professional carpet cleaners were working during my stay. I left mid afternoon to go to an appointment, and there was no equipment in the stairwell. When I got to the bottom floor, I found myself on the ground on my right knee. I had slipped in a puddle of water on the tile. It's Houston; people wear flip flops. Come on. Luckily I wasn't injured badly.I went to the front desk to let the attendant know, and he just said, "Oh, yes, well they are cleaning the carpets." I replied that no, he didn't understand, there was no equipment or hoses or anything visible in the stairwell, and I fell down in a puddle of water, and I could have been seriously hurt, and they should probably do something about it. Only then did the attendant make a weak effort to tell another employee to tell the carpet cleaners to dry the puddle.At this point I was trying to be cordial, and I needed to request a late check out time for the next day, as my husband was working until 6pm. Which brings me to the next issue--complete lack of communication amongst staff. The attendant said that I could check out at 1pm, and he would let the maid know to clean my room last. Next day around 11:15 a.m, I get a call from the front desk asking if I still plan to check out that day. I said yes, and that the attendant yesterday had given me a late check out time of 1pm. She said okay, and I hung up. A bit later, I went to take a shower and get ready to go. I had purposefully left the "do not disturb" sign on my door. Oh, well. While I was in the shower, maid opened the door. Luckily I had the safety latch on, so she was only able to get it open a few inches. Nice.When it was all said and done, I was out of my room a few minutes before the late checkout time I had been given. I was too angry at this point to talk to anyone at the front desk anymore about charging the wrong card.It has been five days. My card was charged for THREE nights (I stayed two), plus there was a completely random additional charge pending for $90. I have been trying to talk to the manager. She actually answered my call yesterday, just to tell me she was in a meeting, and she would have to call me back later. I asked when, because I had classes later that day. She said right after her meeting. Who are these people?It has been a day and a half since that conversation. Thanks to my credit card company, I have disputed the entire transaction. I have never disputed a transaction in my life, but these people are ridiculous. Please save yourself the trouble. I need a weekend to recover from them.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Tiffney S, General Manager at Comfort Suites West Energy Corridor, responded to this reviewResponded November 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2014</t>
+  </si>
+  <si>
+    <t>Hotel was built in 2011; is in nice condition. That about does it for the positives. I made a reservation over the phone with my credit card for a two night stay. When I checked in, I presented a different credit card for payment, and asked attendant to please charge my room to that card. This was never done, even though I complained to the front desk once during my stay that the charges were posting to the wrong account. Next problem? Cold breakfast. There didn't seem to be a lot of guests at the hotel, even though it was a Friday night. The "hot" breakfast items were cold. Next on the list -- foolish negligence. Hotel had carpeted stairways with tile landings. Professional carpet cleaners were working during my stay. I left mid afternoon to go to an appointment, and there was no equipment in the stairwell. When I got to the bottom floor, I found myself on the ground on my right knee. I had slipped in a puddle of water on the tile. It's Houston; people wear flip flops. Come on. Luckily I wasn't injured badly.
+I went to the front desk to let the attendant know, and he just said, "Oh, yes, well they are cleaning the carpets." I replied that no, he didn't understand, there was no equipment or hoses or anything visible in the stairwell, and I fell down in a puddle of water,...Hotel was built in 2011; is in nice condition. That about does it for the positives. I made a reservation over the phone with my credit card for a two night stay. When I checked in, I presented a different credit card for payment, and asked attendant to please charge my room to that card. This was never done, even though I complained to the front desk once during my stay that the charges were posting to the wrong account. Next problem? Cold breakfast. There didn't seem to be a lot of guests at the hotel, even though it was a Friday night. The "hot" breakfast items were cold. Next on the list -- foolish negligence. Hotel had carpeted stairways with tile landings. Professional carpet cleaners were working during my stay. I left mid afternoon to go to an appointment, and there was no equipment in the stairwell. When I got to the bottom floor, I found myself on the ground on my right knee. I had slipped in a puddle of water on the tile. It's Houston; people wear flip flops. Come on. Luckily I wasn't injured badly.I went to the front desk to let the attendant know, and he just said, "Oh, yes, well they are cleaning the carpets." I replied that no, he didn't understand, there was no equipment or hoses or anything visible in the stairwell, and I fell down in a puddle of water, and I could have been seriously hurt, and they should probably do something about it. Only then did the attendant make a weak effort to tell another employee to tell the carpet cleaners to dry the puddle.At this point I was trying to be cordial, and I needed to request a late check out time for the next day, as my husband was working until 6pm. Which brings me to the next issue--complete lack of communication amongst staff. The attendant said that I could check out at 1pm, and he would let the maid know to clean my room last. Next day around 11:15 a.m, I get a call from the front desk asking if I still plan to check out that day. I said yes, and that the attendant yesterday had given me a late check out time of 1pm. She said okay, and I hung up. A bit later, I went to take a shower and get ready to go. I had purposefully left the "do not disturb" sign on my door. Oh, well. While I was in the shower, maid opened the door. Luckily I had the safety latch on, so she was only able to get it open a few inches. Nice.When it was all said and done, I was out of my room a few minutes before the late checkout time I had been given. I was too angry at this point to talk to anyone at the front desk anymore about charging the wrong card.It has been five days. My card was charged for THREE nights (I stayed two), plus there was a completely random additional charge pending for $90. I have been trying to talk to the manager. She actually answered my call yesterday, just to tell me she was in a meeting, and she would have to call me back later. I asked when, because I had classes later that day. She said right after her meeting. Who are these people?It has been a day and a half since that conversation. Thanks to my credit card company, I have disputed the entire transaction. I have never disputed a transaction in my life, but these people are ridiculous. Please save yourself the trouble. I need a weekend to recover from them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r135904488-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135904488</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Worst Customer Service on the PLANET</t>
+  </si>
+  <si>
+    <t>First, let me say that the staff is unprofessional at best. The "security" guy wore an old dirty t-shirt and layed around in the lobby watching TV during my entire 4 night stay. Houskeeping came to clean my room and somehow took the remote with them. When I asked for a replacement remote after working 14 hours and wanting nothing more than to lay in bed and be lazy, I was told that there were no extra ones and I could use the buttons on the TV to change the volume and channel. I asked the young lady at the desk to simply move me to another room with a remote since they refused my suggestion of taking a remote from an unbooked room. She advised me to come down and get a new key. She assigned a new room but just as I was about to move to the new room, the "security guy" came and, in front of me. reprimanded her for moving me to a room they may be able to sell simply because I don't have a remote. He then grabbed an old bag of beat up remotes and tried to get them to work. Once he realized they weren't working, he reluctantly gave me the one from his room....where I believe he LIVES! 
+To make matters worse, I was charged twice for the stay and have had nothing but issues with trying to get the...First, let me say that the staff is unprofessional at best. The "security" guy wore an old dirty t-shirt and layed around in the lobby watching TV during my entire 4 night stay. Houskeeping came to clean my room and somehow took the remote with them. When I asked for a replacement remote after working 14 hours and wanting nothing more than to lay in bed and be lazy, I was told that there were no extra ones and I could use the buttons on the TV to change the volume and channel. I asked the young lady at the desk to simply move me to another room with a remote since they refused my suggestion of taking a remote from an unbooked room. She advised me to come down and get a new key. She assigned a new room but just as I was about to move to the new room, the "security guy" came and, in front of me. reprimanded her for moving me to a room they may be able to sell simply because I don't have a remote. He then grabbed an old bag of beat up remotes and tried to get them to work. Once he realized they weren't working, he reluctantly gave me the one from his room....where I believe he LIVES! To make matters worse, I was charged twice for the stay and have had nothing but issues with trying to get the money back from them. Two weeks have passed and the manager, Phyllis Ward, has avoided me like the plague! I even have my booking agent calling to resolve this and she is avoiding them too. They even refused to send me a receipt showing the additional charge they made to my account. I will NEVER stay at that hotel again and I will NEVER recommend it to anyone. The room was nice but the exterior was frightening. The staff was unprofessional and they wouldn't even give me a toothbrush after I inadvertently left mine at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>First, let me say that the staff is unprofessional at best. The "security" guy wore an old dirty t-shirt and layed around in the lobby watching TV during my entire 4 night stay. Houskeeping came to clean my room and somehow took the remote with them. When I asked for a replacement remote after working 14 hours and wanting nothing more than to lay in bed and be lazy, I was told that there were no extra ones and I could use the buttons on the TV to change the volume and channel. I asked the young lady at the desk to simply move me to another room with a remote since they refused my suggestion of taking a remote from an unbooked room. She advised me to come down and get a new key. She assigned a new room but just as I was about to move to the new room, the "security guy" came and, in front of me. reprimanded her for moving me to a room they may be able to sell simply because I don't have a remote. He then grabbed an old bag of beat up remotes and tried to get them to work. Once he realized they weren't working, he reluctantly gave me the one from his room....where I believe he LIVES! 
+To make matters worse, I was charged twice for the stay and have had nothing but issues with trying to get the...First, let me say that the staff is unprofessional at best. The "security" guy wore an old dirty t-shirt and layed around in the lobby watching TV during my entire 4 night stay. Houskeeping came to clean my room and somehow took the remote with them. When I asked for a replacement remote after working 14 hours and wanting nothing more than to lay in bed and be lazy, I was told that there were no extra ones and I could use the buttons on the TV to change the volume and channel. I asked the young lady at the desk to simply move me to another room with a remote since they refused my suggestion of taking a remote from an unbooked room. She advised me to come down and get a new key. She assigned a new room but just as I was about to move to the new room, the "security guy" came and, in front of me. reprimanded her for moving me to a room they may be able to sell simply because I don't have a remote. He then grabbed an old bag of beat up remotes and tried to get them to work. Once he realized they weren't working, he reluctantly gave me the one from his room....where I believe he LIVES! To make matters worse, I was charged twice for the stay and have had nothing but issues with trying to get the money back from them. Two weeks have passed and the manager, Phyllis Ward, has avoided me like the plague! I even have my booking agent calling to resolve this and she is avoiding them too. They even refused to send me a receipt showing the additional charge they made to my account. I will NEVER stay at that hotel again and I will NEVER recommend it to anyone. The room was nice but the exterior was frightening. The staff was unprofessional and they wouldn't even give me a toothbrush after I inadvertently left mine at home.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r132565049-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -551,6 +804,42 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r123939283-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123939283</t>
+  </si>
+  <si>
+    <t>01/31/2012</t>
+  </si>
+  <si>
+    <t>Home Away from Home - Great Stay !</t>
+  </si>
+  <si>
+    <t>Hands down, best hotel experience I have had for quite some time ! Checking in was very pleasant with a friendly, smiling staff who treated me more than just a room number.  I felt they really appreciated me staying with them.  They asked and offered many suggestions to make the best of my stay away from home.  The room was extremely spacious and new looking with the business area privately divided from the bedroom area with a very beautiful frosted glass divider that helped me to focus on business first and then relax watching the game on the cozy bed.  Very comfortable bed/pillow as I fell asleep with the TV running which never happens at home. The second night I actually spent time in the lobby initially reading a book and then out of the blue got invited to some barbeque with others who also were staying at the hotel.  Got to try some good Houston bbq with some newly made friends watching football in the breakfast area.  Come to find out a regular at the hotel helped make the bbq happen for all us strangers.  Very thoughtful in helping those that travel alot feel like home as eating out can get old for some of us business travelers.  I'm coming back to the Comfort Suites West Energy every time I visit Houston and plan to tell my colleagues back home !MoreShow less</t>
+  </si>
+  <si>
+    <t>Hands down, best hotel experience I have had for quite some time ! Checking in was very pleasant with a friendly, smiling staff who treated me more than just a room number.  I felt they really appreciated me staying with them.  They asked and offered many suggestions to make the best of my stay away from home.  The room was extremely spacious and new looking with the business area privately divided from the bedroom area with a very beautiful frosted glass divider that helped me to focus on business first and then relax watching the game on the cozy bed.  Very comfortable bed/pillow as I fell asleep with the TV running which never happens at home. The second night I actually spent time in the lobby initially reading a book and then out of the blue got invited to some barbeque with others who also were staying at the hotel.  Got to try some good Houston bbq with some newly made friends watching football in the breakfast area.  Come to find out a regular at the hotel helped make the bbq happen for all us strangers.  Very thoughtful in helping those that travel alot feel like home as eating out can get old for some of us business travelers.  I'm coming back to the Comfort Suites West Energy every time I visit Houston and plan to tell my colleagues back home !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r123494136-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123494136</t>
+  </si>
+  <si>
+    <t>01/23/2012</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>What a great hotel, It is a new hotel (approx 2 years old), I found it to be clean and welcoming.  The staff was so friendly and helpful.  The rooms were large and the bed was so comfortable. My room had a sofa and a comfortable desk chair, the wireless internet and TV was really good.  Breakfast was one of the best I've seen in a long time, hot items, 2 kind of waffles, cereal and too many other items to list, it was very clean and well stocked.  Everyone was friendly and made me feel right at home.  If you are going to Houston, I recommend that you try this hotel, you will have a good visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>What a great hotel, It is a new hotel (approx 2 years old), I found it to be clean and welcoming.  The staff was so friendly and helpful.  The rooms were large and the bed was so comfortable. My room had a sofa and a comfortable desk chair, the wireless internet and TV was really good.  Breakfast was one of the best I've seen in a long time, hot items, 2 kind of waffles, cereal and too many other items to list, it was very clean and well stocked.  Everyone was friendly and made me feel right at home.  If you are going to Houston, I recommend that you try this hotel, you will have a good visit.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r123323699-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
@@ -603,6 +892,39 @@
   </si>
   <si>
     <t>Comfort suites 7111 Rancho Mission Drive Houston TX 77083An elderly 83 year old woman, who was a guest at this hotel, was having breakfast in the morning. She had dry-mouth due to the medication she was taking. She asked for a bottle of water with her meal. She was told to go drink from the fountain. When she repeated her request for a bottled water, she was told the case of bottled water was locked in the manager's office.When the manager arrived, the manager called the police: she said she did not want this elderly woman on the premise. The senior citizen want to get her things from the room and the police said if she did not leave immediately, she will be arrested. The elderly woman left the premise. Some other guests had to go to her room to collect her things. This happened before the checkout time which is a violation of the written contract her had with Comfort Suites at check in.I used to think that Comfort suties was a good hotel but it appears their public relations need a lot of work.This elderly woman should have been given a bottle of water as she requested even if they had to charge it to her room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r114834596-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114834596</t>
+  </si>
+  <si>
+    <t>06/28/2011</t>
+  </si>
+  <si>
+    <t>My Business Trip</t>
+  </si>
+  <si>
+    <t>My company has always wanted us to use other Hotels in the Houston area.  I was contacted by the Marketing Manager who took very good care of all of us. She went the extra mile and made sure that all of us was very satisfied. The hotel was very nice and clean. The staff was great will telling us where to eat. Great Hotel!</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r111211383-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>111211383</t>
+  </si>
+  <si>
+    <t>06/02/2011</t>
+  </si>
+  <si>
+    <t>Stay away -Worst customer service</t>
+  </si>
+  <si>
+    <t>Reached hotel at 11 pm , have to wait 20 min to check in Asked desk clerk  for little late check out for I'm choice GP member then lady with name of Phillips wards came in picture and started screaming that ibdont know why people come with such demand and she don't give a damn and I can complain whom ever I want tooCame to room it was burning hot and still feeling suffocated while writing this comment out of frustationFellow believe me don't buy a pig with lipstic or beautiful makeup Any very bad experience and on top of that staff felt good for giving me hard time</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1583951-r80363410-Comfort_Suites_West_Energy_Corridor-Houston_Texas.html</t>
@@ -1155,7 +1477,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1172,10 +1494,14 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -1191,7 +1517,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -1200,43 +1526,49 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1252,7 +1584,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1261,43 +1593,39 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1313,7 +1641,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1322,35 +1650,35 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1358,7 +1686,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1374,7 +1702,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1383,41 +1711,41 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>80</v>
-      </c>
-      <c r="X6" t="s">
-        <v>81</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
         <v>82</v>
       </c>
@@ -1435,7 +1763,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1444,47 +1772,45 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>90</v>
-      </c>
-      <c r="X7" t="s">
-        <v>91</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -1500,7 +1826,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1509,35 +1835,29 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
         <v>94</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="L8" t="s">
-        <v>97</v>
-      </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="n">
         <v>5</v>
       </c>
@@ -1548,14 +1868,10 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>99</v>
-      </c>
-      <c r="X8" t="s">
-        <v>100</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -1571,7 +1887,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1580,53 +1896,43 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" t="n">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
         <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>99</v>
-      </c>
-      <c r="X9" t="s">
-        <v>100</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
@@ -1642,7 +1948,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1651,53 +1957,43 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="X10" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -1713,7 +2009,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1722,43 +2018,47 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
         <v>117</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>118</v>
       </c>
-      <c r="K11" t="s">
+      <c r="O11" t="s">
         <v>119</v>
-      </c>
-      <c r="L11" t="s">
-        <v>120</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O11" t="s">
-        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="X11" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -1774,7 +2074,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1783,22 +2083,22 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
         <v>52</v>
@@ -1807,10 +2107,10 @@
         <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1823,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="X12" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -1845,7 +2145,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1854,53 +2154,53 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="X13" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -1916,7 +2216,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1925,53 +2225,53 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
         <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="X14" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -1987,7 +2287,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1996,34 +2296,34 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2035,10 +2335,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X15" t="s">
+        <v>130</v>
+      </c>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
@@ -2054,7 +2358,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2063,53 +2367,53 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="X16" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="Y16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
@@ -2125,7 +2429,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2134,49 +2438,53 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
         <v>159</v>
       </c>
-      <c r="K17" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" t="s">
-        <v>161</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>162</v>
-      </c>
       <c r="O17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
       </c>
       <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
         <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>145</v>
+      </c>
+      <c r="X17" t="s">
+        <v>130</v>
+      </c>
       <c r="Y17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
@@ -2192,7 +2500,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2201,49 +2509,53 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>145</v>
+      </c>
+      <c r="X18" t="s">
+        <v>130</v>
+      </c>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
@@ -2259,7 +2571,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2268,49 +2580,43 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="O19" t="s">
         <v>52</v>
       </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>145</v>
+      </c>
+      <c r="X19" t="s">
+        <v>130</v>
+      </c>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
@@ -2326,7 +2632,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2335,22 +2641,22 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="O20" t="s">
         <v>52</v>
@@ -2374,10 +2680,14 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>145</v>
+      </c>
+      <c r="X20" t="s">
+        <v>130</v>
+      </c>
       <c r="Y20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
@@ -2393,7 +2703,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2402,49 +2712,53 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>145</v>
+      </c>
+      <c r="X21" t="s">
+        <v>130</v>
+      </c>
       <c r="Y21" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22">
@@ -2460,7 +2774,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2469,39 +2783,49 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
-      <c r="N22" t="s">
-        <v>193</v>
-      </c>
-      <c r="O22" t="s">
-        <v>59</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>145</v>
+      </c>
+      <c r="X22" t="s">
+        <v>130</v>
+      </c>
       <c r="Y22" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
@@ -2517,7 +2841,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2526,41 +2850,41 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="J23" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O23" t="s">
         <v>52</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2568,7 +2892,1073 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>199</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>210</v>
+      </c>
+      <c r="O24" t="s">
+        <v>91</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>145</v>
+      </c>
+      <c r="X24" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" t="s">
+        <v>214</v>
+      </c>
+      <c r="K25" t="s">
+        <v>215</v>
+      </c>
+      <c r="L25" t="s">
+        <v>216</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>210</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" t="s">
+        <v>220</v>
+      </c>
+      <c r="K26" t="s">
+        <v>221</v>
+      </c>
+      <c r="L26" t="s">
+        <v>222</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>171</v>
+      </c>
+      <c r="O26" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>145</v>
+      </c>
+      <c r="X26" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" t="s">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s">
+        <v>228</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>229</v>
+      </c>
+      <c r="O27" t="s">
+        <v>119</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>230</v>
+      </c>
+      <c r="X27" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>234</v>
+      </c>
+      <c r="J28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" t="s">
+        <v>236</v>
+      </c>
+      <c r="L28" t="s">
+        <v>237</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>241</v>
+      </c>
+      <c r="J29" t="s">
+        <v>242</v>
+      </c>
+      <c r="K29" t="s">
+        <v>243</v>
+      </c>
+      <c r="L29" t="s">
+        <v>244</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>245</v>
+      </c>
+      <c r="O29" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>247</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>248</v>
+      </c>
+      <c r="J30" t="s">
+        <v>249</v>
+      </c>
+      <c r="K30" t="s">
+        <v>250</v>
+      </c>
+      <c r="L30" t="s">
+        <v>251</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>252</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>254</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>255</v>
+      </c>
+      <c r="J31" t="s">
+        <v>256</v>
+      </c>
+      <c r="K31" t="s">
+        <v>257</v>
+      </c>
+      <c r="L31" t="s">
+        <v>258</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>259</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>261</v>
+      </c>
+      <c r="J32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K32" t="s">
+        <v>263</v>
+      </c>
+      <c r="L32" t="s">
+        <v>264</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>259</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>266</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J33" t="s">
+        <v>268</v>
+      </c>
+      <c r="K33" t="s">
+        <v>269</v>
+      </c>
+      <c r="L33" t="s">
+        <v>270</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>259</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>272</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>273</v>
+      </c>
+      <c r="J34" t="s">
+        <v>274</v>
+      </c>
+      <c r="K34" t="s">
+        <v>275</v>
+      </c>
+      <c r="L34" t="s">
+        <v>276</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>259</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>277</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>278</v>
+      </c>
+      <c r="J35" t="s">
+        <v>279</v>
+      </c>
+      <c r="K35" t="s">
+        <v>280</v>
+      </c>
+      <c r="L35" t="s">
+        <v>281</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>282</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>283</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>284</v>
+      </c>
+      <c r="J36" t="s">
+        <v>285</v>
+      </c>
+      <c r="K36" t="s">
+        <v>286</v>
+      </c>
+      <c r="L36" t="s">
+        <v>287</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>288</v>
+      </c>
+      <c r="O36" t="s">
+        <v>62</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>290</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>291</v>
+      </c>
+      <c r="J37" t="s">
+        <v>292</v>
+      </c>
+      <c r="K37" t="s">
+        <v>293</v>
+      </c>
+      <c r="L37" t="s">
+        <v>294</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>295</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>297</v>
+      </c>
+      <c r="J38" t="s">
+        <v>298</v>
+      </c>
+      <c r="K38" t="s">
+        <v>299</v>
+      </c>
+      <c r="L38" t="s">
+        <v>300</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60448</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>302</v>
+      </c>
+      <c r="J39" t="s">
+        <v>303</v>
+      </c>
+      <c r="K39" t="s">
+        <v>304</v>
+      </c>
+      <c r="L39" t="s">
+        <v>305</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>306</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
